--- a/SpMVC_ShopV2/쇼핑몰 테이블명세 양식.xlsx
+++ b/SpMVC_ShopV2/쇼핑몰 테이블명세 양식.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\spring\SpMVC_ShopV1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\spring\SpMVC_ShopV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="상품정보 테이블명세" sheetId="2" r:id="rId1"/>
-    <sheet name="거래처정보 테이블명세" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="거래처정보 테이블명세" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -274,9 +275,6 @@
     <t>D_MN_TEL</t>
   </si>
   <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
     <t>CHAR(4)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -289,10 +287,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nVARCHAR(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nVARCHAR2(50)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -306,6 +300,33 @@
   </si>
   <si>
     <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제Flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_NOT_USE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_NOT_USE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT NULL</t>
+  </si>
+  <si>
+    <t>nVARCHAR2(255)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1022,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:H11"/>
+    <sheetView showGridLines="0" topLeftCell="C4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1941,11 +1962,21 @@
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -2090,10 +2121,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F11"/>
+    <sheetView showGridLines="0" topLeftCell="B4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2856,7 +2967,7 @@
         <v>62</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
@@ -2881,7 +2992,7 @@
         <v>63</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>22</v>
@@ -2906,10 +3017,10 @@
         <v>64</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -2931,7 +3042,7 @@
         <v>65</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -2948,13 +3059,13 @@
         <v>59</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -2971,13 +3082,13 @@
         <v>60</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -3000,7 +3111,7 @@
         <v>68</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -3013,11 +3124,21 @@
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -3146,12 +3267,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C3:L3"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
